--- a/data/trans_orig/P36B02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_2023-Edad-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,74%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,04%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>75,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,17%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>76,95%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,23%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>17,64%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,73%</t>
+          <t>64,09%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>76,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>74,99%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,14%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>67,45%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>69,74%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>74,37%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>76,01%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>71,92%</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>761</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>501790</v>
+        <v>501791</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>69,12%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>74,55%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>80,52%</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,49%</t>
         </is>
       </c>
     </row>
